--- a/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
+++ b/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
@@ -86,7 +86,7 @@
     <t>target$rating</t>
   </si>
   <si>
-    <t>2,4,6,8</t>
+    <t>9.0, 7.75, 5.5, 3.25</t>
   </si>
   <si>
     <t>target$explanation$de</t>

--- a/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
+++ b/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>original_title</t>
   </si>
@@ -53,7 +53,7 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t>Wenn die Schulden eines Staates nicht mehr tragbar sind, können sie zu einem Entwicklungshindernis werden. In den 1980er und 1990er Jahren führte die "Schuldenkrise der Dritten Welt" zu einem verlorenen Entwicklungsjahrzehnt für viele Entwicklungsländer. Aktuell sind 108 Länder von Überschuldung bedroht (erlassjahr.de, Schuldenreport 2016). Damit die globale Entwicklungsagenda erfolgreich umgesetzt werden kann, muss es die Möglichkeit geben, Schuldenkrisen zeitig, fair und nachhaltig lösen zu können. Dieser Indikator soll messen, ob die Industrieländer ernsthafte und angemessene Maßnahmen zur nachhaltigen Lösung von Staatsschuldenkrisen ergreifen. Er ist unterteilt in drei Unterindikatoren: Anti-Geier Gesetzgebung, Überprüfung der nationalen Forderungen auf der Basis der Prinzipien verantwortlicher Kreditvergabe und Initiativen für ein umfassendes und rechtsstaatliches Staateninsolvenzverfahren. Ein Land kann pro Unterindikator 3 Punkte erreichen, in der Gesamtzahl damit 9 Punkte.</t>
+    <t>Wenn die Schulden eines Staates nicht mehr tragbar sind, können sie zu einem Entwicklungshindernis werden. In den 1980er und 1990er Jahren führte die "Schuldenkrise der Dritten Welt" zu einem verlorenen Entwicklungsjahrzehnt für viele Entwicklungsländer. Aktuell sind 108 Länder von Überschuldung bedroht (erlassjahr.de, Schuldenreport 2016). Damit die globale Entwicklungsagenda erfolgreich umgesetzt werden kann, muss es die Möglichkeit geben, Schuldenkrisen zeitig, fair und nachhaltig lösen zu können. Dieser Indikator soll messen, ob die Industrieländer ernsthafte und angemessene Maßnahmen zur nachhaltigen Lösung von Staatsschuldenkrisen ergreifen. Er ist unterteilt in drei Unterindikatoren: Anti-Geier Gesetzgebung, Überprüfung der nationalen Forderungen auf der Basis der Prinzipien verantwortlicher Kreditvergabe und Initiativen für ein umfassendes und rechtsstaatliches Staateninsolvenzverfahren. Ein Land kann pro Unterindikator 3 Punkte erreichen, in der Gesamtzahl damit 9 Punkte. Die Details der Bewertung sind im Dokument beschrieben, das auf der Webseite bereitgestellt wird.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>long_indicator_description$en$text</t>
+  </si>
+  <si>
+    <t>If the debts of a country are too high, they can become a frein to development. In the 1980s and 1990 the debt crisis led to a lost decade in the development of many developing nations. At the moment 108 countries are threatened by unsustainable debt levels (erlassjahr.de, Schuldenreport 2016). To implement the global development agenda successfull it is essential to resolve debt crisis in a fair and sustainable way. This indicator measures, if industrialised countries have taken appropriate measure for the sustainable solution of debt crisis. It includes three sub-indicators: antitrust legislation, review of national debits based on the principles of responsible credit and initiatives for a comprehensive and constitutional proceedings for national insolvency. A country can obtain up to 3 points per sub-indicator, so 9 points in total. The details of the assessment are described in the document presented on the website.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
@@ -784,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -813,10 +816,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -845,7 +848,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -875,10 +878,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -907,7 +910,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <v>9.0</v>
@@ -939,10 +942,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -971,10 +974,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1003,10 +1006,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1035,7 +1038,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1064,10 +1067,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11">
         <v>17.4</v>
@@ -1128,10 +1131,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1190,7 +1193,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1248,10 +1251,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="3"/>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>2016.0</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1342,10 +1345,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="3"/>
@@ -1404,10 +1407,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1498,9 +1501,11 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1528,7 +1533,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="15"/>
@@ -1618,7 +1623,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3">
         <v>0.0</v>
@@ -1650,7 +1655,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3">
         <v>0.0</v>
@@ -1682,7 +1687,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3">
         <v>3.0</v>
@@ -1714,7 +1719,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3">
         <v>3.0</v>
@@ -1746,7 +1751,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3">
         <v>0.0</v>
@@ -1778,7 +1783,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3">
         <v>3.0</v>
@@ -1810,7 +1815,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3">
         <v>3.0</v>
@@ -1842,7 +1847,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3">
         <v>0.0</v>
@@ -1874,7 +1879,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3">
         <v>0.0</v>
@@ -1906,7 +1911,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="3">
         <v>0.0</v>
@@ -1938,7 +1943,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3">
         <v>0.0</v>
@@ -1970,7 +1975,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3">
         <v>1.0</v>
@@ -2002,7 +2007,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="3">
         <v>1.0</v>
@@ -2034,7 +2039,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3">
         <v>0.0</v>
@@ -2066,7 +2071,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3">
         <v>0.0</v>
@@ -2098,7 +2103,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3">
         <v>1.0</v>
@@ -2130,7 +2135,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3">
         <v>0.0</v>
@@ -2162,7 +2167,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3">
         <v>0.0</v>
@@ -2194,7 +2199,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3">
         <v>0.0</v>
@@ -2226,7 +2231,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3">
         <v>0.0</v>
@@ -2258,7 +2263,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>0.0</v>
@@ -2290,7 +2295,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="3">
         <v>0.0</v>
@@ -2322,7 +2327,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3">
         <v>0.0</v>
@@ -2354,7 +2359,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3">
         <v>0.0</v>
@@ -2386,7 +2391,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="3">
         <v>0.0</v>
@@ -2418,7 +2423,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="3">
         <v>2.0</v>
@@ -2450,7 +2455,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="3">
         <v>0.0</v>
@@ -2482,7 +2487,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3">
         <v>0.0</v>
@@ -2514,7 +2519,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="3">
         <v>0.0</v>
@@ -2546,7 +2551,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="3">
         <v>0.0</v>
@@ -2578,7 +2583,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="3">
         <v>3.0</v>
@@ -2610,7 +2615,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="3">
         <v>0.0</v>
@@ -2642,7 +2647,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="3">
         <v>0.0</v>
@@ -2674,7 +2679,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="3">
         <v>0.0</v>
@@ -2706,7 +2711,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="3">
         <v>3.0</v>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3">
         <v>2.0</v>
@@ -2770,7 +2775,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="3">
         <v>0.0</v>
@@ -2802,7 +2807,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="3">
         <v>3.0</v>
@@ -28618,18 +28623,18 @@
     <row r="2">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="20">
         <v>0.0</v>
@@ -28643,7 +28648,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="20">
         <v>0.0</v>
@@ -28657,7 +28662,7 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="20">
         <v>3.0</v>
@@ -28671,7 +28676,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="20">
         <v>0.0</v>
@@ -28685,7 +28690,7 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="20">
         <v>0.0</v>
@@ -28699,7 +28704,7 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="20">
         <v>0.0</v>
@@ -28713,7 +28718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="20">
         <v>0.0</v>
@@ -28727,7 +28732,7 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="20">
         <v>0.0</v>
@@ -28741,7 +28746,7 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="20">
         <v>0.0</v>
@@ -28755,7 +28760,7 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="20">
         <v>0.0</v>
@@ -28769,7 +28774,7 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="20">
         <v>0.0</v>
@@ -28783,7 +28788,7 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="20">
         <v>1.0</v>
@@ -28797,7 +28802,7 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="20">
         <v>1.0</v>
@@ -28811,7 +28816,7 @@
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="20">
         <v>0.0</v>
@@ -28825,7 +28830,7 @@
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="20">
         <v>0.0</v>
@@ -28839,7 +28844,7 @@
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="20">
         <v>0.0</v>
@@ -28853,7 +28858,7 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="20">
         <v>0.0</v>
@@ -28867,7 +28872,7 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="20">
         <v>0.0</v>
@@ -28881,7 +28886,7 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="20">
         <v>0.0</v>
@@ -28895,7 +28900,7 @@
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="20">
         <v>0.0</v>
@@ -28909,7 +28914,7 @@
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="20">
         <v>0.0</v>
@@ -28923,7 +28928,7 @@
     </row>
     <row r="24">
       <c r="A24" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="20">
         <v>0.0</v>
@@ -28937,7 +28942,7 @@
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="20">
         <v>0.0</v>
@@ -28951,7 +28956,7 @@
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="20">
         <v>0.0</v>
@@ -28965,7 +28970,7 @@
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="20">
         <v>0.0</v>
@@ -28979,7 +28984,7 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="20">
         <v>0.0</v>
@@ -28993,7 +28998,7 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="20">
         <v>0.0</v>
@@ -29007,7 +29012,7 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="20">
         <v>0.0</v>
@@ -29021,7 +29026,7 @@
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="20">
         <v>0.0</v>
@@ -29035,7 +29040,7 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="20">
         <v>0.0</v>
@@ -29049,7 +29054,7 @@
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="20">
         <v>0.0</v>
@@ -29063,7 +29068,7 @@
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="20">
         <v>0.0</v>
@@ -29077,7 +29082,7 @@
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="20">
         <v>0.0</v>
@@ -29091,7 +29096,7 @@
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="20">
         <v>0.0</v>
@@ -29105,7 +29110,7 @@
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="20">
         <v>0.0</v>
@@ -29119,7 +29124,7 @@
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="20">
         <v>2.0</v>
@@ -29133,7 +29138,7 @@
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" s="20">
         <v>0.0</v>
@@ -29147,7 +29152,7 @@
     </row>
     <row r="40">
       <c r="A40" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="20">
         <v>0.0</v>

--- a/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
+++ b/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
@@ -9,6 +9,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B31">
+      <text>
+        <t xml:space="preserve">All of these set to match name in sponsor JSON
+	-Matt Fullerton</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -155,7 +171,7 @@
     <t>source$publisher</t>
   </si>
   <si>
-    <t>erlassjahr.de</t>
+    <t>erlassjahr.de - Entwicklung braucht Entschuldung (Jubilee Germany)</t>
   </si>
   <si>
     <t>source$link</t>
@@ -1409,7 +1425,7 @@
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="3"/>
@@ -1471,7 +1487,7 @@
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="3"/>
@@ -1503,7 +1519,7 @@
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="3"/>
@@ -28598,7 +28614,8 @@
       <c r="Z995" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
+++ b/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
@@ -9,22 +9,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B31">
-      <text>
-        <t xml:space="preserve">All of these set to match name in sponsor JSON
-	-Matt Fullerton</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -171,7 +155,7 @@
     <t>source$publisher</t>
   </si>
   <si>
-    <t>erlassjahr.de - Entwicklung braucht Entschuldung (Jubilee Germany)</t>
+    <t>erlassjahr.de</t>
   </si>
   <si>
     <t>source$link</t>
@@ -408,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -446,6 +430,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1425,7 +1413,7 @@
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="3"/>
@@ -1457,7 +1445,7 @@
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1487,7 +1475,7 @@
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="3"/>
@@ -1519,7 +1507,7 @@
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="3"/>
@@ -1582,9 +1570,9 @@
         <v>52</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1612,9 +1600,9 @@
       <c r="B37" s="11">
         <v>2016.0</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1638,15 +1626,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="3">
         <v>0.0</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1670,15 +1658,15 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="3">
         <v>0.0</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1702,15 +1690,15 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="3">
         <v>3.0</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1734,15 +1722,15 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="3">
         <v>3.0</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1766,15 +1754,15 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="3">
         <v>0.0</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1798,15 +1786,15 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="3">
         <v>3.0</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1830,15 +1818,15 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3">
         <v>3.0</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1862,15 +1850,15 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B45" s="3">
         <v>0.0</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1894,15 +1882,15 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="3">
         <v>0.0</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1926,15 +1914,15 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="3">
         <v>0.0</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1958,15 +1946,15 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="3">
         <v>0.0</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1990,15 +1978,15 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B49" s="3">
         <v>1.0</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2022,15 +2010,15 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B50" s="3">
         <v>1.0</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2054,15 +2042,15 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="3">
         <v>0.0</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2086,15 +2074,15 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="3">
         <v>0.0</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2118,15 +2106,15 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="3">
         <v>1.0</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2150,15 +2138,15 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="3">
         <v>0.0</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2182,15 +2170,15 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="3">
         <v>0.0</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2214,15 +2202,15 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="3">
         <v>0.0</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2246,15 +2234,15 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="3">
         <v>0.0</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2278,15 +2266,15 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="3">
         <v>0.0</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2310,15 +2298,15 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="3">
         <v>0.0</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2342,15 +2330,15 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B60" s="3">
         <v>0.0</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2374,15 +2362,15 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="3">
         <v>0.0</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2406,15 +2394,15 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B62" s="3">
         <v>0.0</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2438,15 +2426,15 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B63" s="3">
         <v>2.0</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2470,15 +2458,15 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B64" s="3">
         <v>0.0</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2502,15 +2490,15 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="3">
         <v>0.0</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2534,15 +2522,15 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="3">
         <v>0.0</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2566,15 +2554,15 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="3">
         <v>0.0</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2598,15 +2586,15 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B68" s="3">
         <v>3.0</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2630,15 +2618,15 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B69" s="3">
         <v>0.0</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2662,15 +2650,15 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B70" s="3">
         <v>0.0</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2694,15 +2682,15 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B71" s="3">
         <v>0.0</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2726,7 +2714,7 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B72" s="3">
@@ -2758,7 +2746,7 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B73" s="3">
@@ -2790,7 +2778,7 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B74" s="3">
@@ -2822,7 +2810,7 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B75" s="3">
@@ -28614,8 +28602,7 @@
       <c r="Z995" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28638,546 +28625,546 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="22">
         <v>0.0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="22">
         <v>0.0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="22">
         <v>0.0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="22">
         <v>0.0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="22">
         <v>3.0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>0.0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="22">
         <v>0.0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>0.0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="22">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="22">
         <v>0.0</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <v>0.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="22">
         <v>0.0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="22">
         <v>0.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="22">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="22">
         <v>0.0</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>0.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="22">
         <v>0.0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="22">
         <v>0.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="22">
         <v>0.0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>0.0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="22">
         <v>0.0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <v>0.0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="22">
         <v>0.0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <v>0.0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="22">
         <v>1.0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="22">
         <v>0.0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="22">
         <v>1.0</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="22">
         <v>0.0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="22">
         <v>0.0</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="22">
         <v>0.0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="22">
         <v>0.0</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="22">
         <v>0.0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="22">
         <v>0.0</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="22">
         <v>0.0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="22">
         <v>0.0</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="22">
         <v>0.0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="22">
         <v>0.0</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="22">
         <v>0.0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="22">
         <v>0.0</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="22">
         <v>0.0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="22">
         <v>0.0</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="22">
         <v>0.0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="22">
         <v>0.0</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="22">
         <v>0.0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="22">
         <v>0.0</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="22">
         <v>0.0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="22">
         <v>0.0</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="22">
         <v>0.0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="22">
         <v>0.0</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="22">
         <v>0.0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="22">
         <v>0.0</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="22">
         <v>0.0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="22">
         <v>0.0</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="22">
         <v>2.0</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="22">
         <v>0.0</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="22">
         <v>0.0</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="22">
         <v>0.0</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="22">
         <v>0.0</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="22">
         <v>0.0</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="22">
         <v>0.0</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="22">
         <v>0.0</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="22">
         <v>0.0</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="22">
         <v>0.0</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="22">
         <v>0.0</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="22">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="22">
         <v>0.0</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="22">
         <v>0.0</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="22">
         <v>0.0</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="22">
         <v>0.0</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="22">
         <v>0.0</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="22">
         <v>0.0</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="22">
         <v>0.0</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="22">
         <v>0.0</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="22">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="22">
         <v>2.0</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="22">
         <v>0.0</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="22">
         <v>0.0</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="22">
         <v>0.0</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="22">
         <v>0.0</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="22">
         <v>0.0</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="22">
         <v>3.0</v>
       </c>
     </row>

--- a/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
+++ b/datastatic/datasets/online/SDG17_Debt_Policies_Erlassjahr_2016.xlsx
@@ -35,10 +35,28 @@
     <t>sdg</t>
   </si>
   <si>
-    <t>Unterindikator 2</t>
+    <t>short_indicator_description</t>
   </si>
   <si>
-    <t>short_indicator_description</t>
+    <t>short_indicator_description$de</t>
+  </si>
+  <si>
+    <t>Koordinierte Politik zur effizienten und nachhaltigen Lösung von Staatsschuldenkrisen</t>
+  </si>
+  <si>
+    <t>short_indicator_description$en</t>
+  </si>
+  <si>
+    <t>Sustainable Resolution of Sovereign Debt Crises</t>
+  </si>
+  <si>
+    <t>long_indicator_description</t>
+  </si>
+  <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
+    <t>Unterindikator 2</t>
   </si>
   <si>
     <t>Unterindikator 3</t>
@@ -47,10 +65,7 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>short_indicator_description$de</t>
-  </si>
-  <si>
-    <t>Koordinierte Politik zur effizienten und nachhaltigen Lösung von Staatsschuldenkrisen</t>
+    <t>Wenn die Schulden eines Staates nicht mehr tragbar sind, können sie zu einem Entwicklungshindernis werden. In den 1980er und 1990er Jahren führte die "Schuldenkrise der Dritten Welt" zu einem verlorenen Entwicklungsjahrzehnt für viele Entwicklungsländer. Aktuell sind 108 Länder von Überschuldung bedroht (erlassjahr.de, Schuldenreport 2016). Damit die globale Entwicklungsagenda erfolgreich umgesetzt werden kann, muss es die Möglichkeit geben, Schuldenkrisen zeitig, fair und nachhaltig lösen zu können. Dieser Indikator soll messen, ob die Industrieländer ernsthafte und angemessene Maßnahmen zur nachhaltigen Lösung von Staatsschuldenkrisen ergreifen. Er ist unterteilt in drei Unterindikatoren: Anti-Geier Gesetzgebung, Überprüfung der nationalen Forderungen auf der Basis der Prinzipien verantwortlicher Kreditvergabe und Initiativen für ein umfassendes und rechtsstaatliches Staateninsolvenzverfahren. Ein Land kann pro Unterindikator 3 Punkte erreichen, in der Gesamtzahl damit 9 Punkte. Die Details der Bewertung sind im Dokument beschrieben, das auf der Webseite bereitgestellt wird.</t>
   </si>
   <si>
     <t>Austria</t>
@@ -71,7 +86,13 @@
     <t>China</t>
   </si>
   <si>
+    <t>long_indicator_description$de$baseunit</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Punkte (0-9)</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -83,10 +104,7 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>short_indicator_description$en</t>
-  </si>
-  <si>
-    <t>Sustainable Resolution of Sovereign Debt Crises</t>
+    <t>long_indicator_description$en$text</t>
   </si>
   <si>
     <t>France</t>
@@ -98,7 +116,7 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>long_indicator_description</t>
+    <t>If the debts of a country are too high, they can become a frein to development. In the 1980s and 1990 the debt crisis led to a lost decade in the development of many developing nations. At the moment 108 countries are threatened by unsustainable debt levels (erlassjahr.de, Schuldenreport 2016). To implement the global development agenda successfull it is essential to resolve debt crisis in a fair and sustainable way. This indicator measures, if industrialised countries have taken appropriate measure for the sustainable solution of debt crisis. It includes three sub-indicators: antitrust legislation, review of national debits based on the principles of responsible credit and initiatives for a comprehensive and constitutional proceedings for national insolvency. A country can obtain up to 3 points per sub-indicator, so 9 points in total. The details of the assessment are described in the document presented on the website.</t>
   </si>
   <si>
     <t>Hungary</t>
@@ -110,10 +128,13 @@
     <t>Ireland</t>
   </si>
   <si>
-    <t>long_indicator_description$de$text</t>
+    <t>long_indicator_description$en$baseunit</t>
   </si>
   <si>
     <t>Israël</t>
+  </si>
+  <si>
+    <t>Points (0-9)</t>
   </si>
   <si>
     <t>Italy</t>
@@ -125,10 +146,10 @@
     <t>Korea</t>
   </si>
   <si>
-    <t>Luxembourg</t>
+    <t>target</t>
   </si>
   <si>
-    <t>Wenn die Schulden eines Staates nicht mehr tragbar sind, können sie zu einem Entwicklungshindernis werden. In den 1980er und 1990er Jahren führte die "Schuldenkrise der Dritten Welt" zu einem verlorenen Entwicklungsjahrzehnt für viele Entwicklungsländer. Aktuell sind 108 Länder von Überschuldung bedroht (erlassjahr.de, Schuldenreport 2016). Damit die globale Entwicklungsagenda erfolgreich umgesetzt werden kann, muss es die Möglichkeit geben, Schuldenkrisen zeitig, fair und nachhaltig lösen zu können. Dieser Indikator soll messen, ob die Industrieländer ernsthafte und angemessene Maßnahmen zur nachhaltigen Lösung von Staatsschuldenkrisen ergreifen. Er ist unterteilt in drei Unterindikatoren: Anti-Geier Gesetzgebung, Überprüfung der nationalen Forderungen auf der Basis der Prinzipien verantwortlicher Kreditvergabe und Initiativen für ein umfassendes und rechtsstaatliches Staateninsolvenzverfahren. Ein Land kann pro Unterindikator 3 Punkte erreichen, in der Gesamtzahl damit 9 Punkte. Die Details der Bewertung sind im Dokument beschrieben, das auf der Webseite bereitgestellt wird.</t>
+    <t>Luxembourg</t>
   </si>
   <si>
     <t>Mexico</t>
@@ -137,7 +158,13 @@
     <t>Netherlands</t>
   </si>
   <si>
+    <t>target$type</t>
+  </si>
+  <si>
     <t>New Zealand</t>
+  </si>
+  <si>
+    <t>more</t>
   </si>
   <si>
     <t>Norway</t>
@@ -149,16 +176,13 @@
     <t>Portugal</t>
   </si>
   <si>
+    <t>target$value</t>
+  </si>
+  <si>
     <t>Slovak Republic</t>
   </si>
   <si>
     <t>Slovenia</t>
-  </si>
-  <si>
-    <t>long_indicator_description$de$baseunit</t>
-  </si>
-  <si>
-    <t>Punkte (0-9)</t>
   </si>
   <si>
     <t>South Africa</t>
@@ -167,16 +191,22 @@
     <t>Spain</t>
   </si>
   <si>
+    <t>target$rating</t>
+  </si>
+  <si>
+    <t>9.0, 7.75, 5.5, 3.25</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>long_indicator_description$en$text</t>
+    <t>Turkey</t>
   </si>
   <si>
-    <t>Turkey</t>
+    <t>target$explanation$de</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -186,36 +216,6 @@
   </si>
   <si>
     <t>Russland</t>
-  </si>
-  <si>
-    <t>If the debts of a country are too high, they can become a frein to development. In the 1980s and 1990 the debt crisis led to a lost decade in the development of many developing nations. At the moment 108 countries are threatened by unsustainable debt levels (erlassjahr.de, Schuldenreport 2016). To implement the global development agenda successfull it is essential to resolve debt crisis in a fair and sustainable way. This indicator measures, if industrialised countries have taken appropriate measure for the sustainable solution of debt crisis. It includes three sub-indicators: antitrust legislation, review of national debits based on the principles of responsible credit and initiatives for a comprehensive and constitutional proceedings for national insolvency. A country can obtain up to 3 points per sub-indicator, so 9 points in total. The details of the assessment are described in the document presented on the website.</t>
-  </si>
-  <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
-    <t>Points (0-9)</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>target$type</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>target$value</t>
-  </si>
-  <si>
-    <t>target$rating</t>
-  </si>
-  <si>
-    <t>9.0, 7.75, 5.5, 3.25</t>
-  </si>
-  <si>
-    <t>target$explanation$de</t>
   </si>
   <si>
     <t xml:space="preserve">Der optimale Wert wurde aufgrund der Bewertungsstufen bei den Unterindikatoren gewählt. Jeder Unterindikator hat die Bewertungspunkte 0-3, insgesamt also 9. Der Wert 9 indiziert dann, dass ein Industrieland vorbildliche Politik im Hinblick auf SDG17.4 betreibt.  </t>
@@ -321,19 +321,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -396,55 +396,55 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -473,10 +473,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5"/>
@@ -538,7 +538,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
@@ -570,7 +570,7 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>17.0</v>
       </c>
       <c r="C4" s="5"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -630,10 +630,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -662,10 +662,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
@@ -724,10 +724,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -756,10 +756,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -788,10 +788,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -820,10 +820,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -882,10 +882,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7">
         <v>9.0</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -977,10 +977,10 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="5"/>
@@ -1009,10 +1009,10 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="5"/>
@@ -1137,7 +1137,7 @@
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="5"/>
@@ -1166,7 +1166,7 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="5"/>
@@ -1289,7 +1289,7 @@
       <c r="A27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>2016.0</v>
       </c>
       <c r="C27" s="17"/>
@@ -1536,7 +1536,7 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="7"/>
@@ -1626,8 +1626,8 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>10</v>
+      <c r="A38" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -1658,8 +1658,8 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>13</v>
+      <c r="A39" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -1690,8 +1690,8 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>14</v>
+      <c r="A40" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="5">
         <v>3.0</v>
@@ -1722,8 +1722,8 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>15</v>
+      <c r="A41" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="5">
         <v>3.0</v>
@@ -1754,8 +1754,8 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>16</v>
+      <c r="A42" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -1786,8 +1786,8 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>17</v>
+      <c r="A43" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="5">
         <v>3.0</v>
@@ -1818,8 +1818,8 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>18</v>
+      <c r="A44" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="5">
         <v>3.0</v>
@@ -1850,8 +1850,8 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>19</v>
+      <c r="A45" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -1882,8 +1882,8 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>20</v>
+      <c r="A46" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -1914,8 +1914,8 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>21</v>
+      <c r="A47" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -1946,8 +1946,8 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>22</v>
+      <c r="A48" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -1978,8 +1978,8 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>25</v>
+      <c r="A49" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B49" s="5">
         <v>1.0</v>
@@ -2010,8 +2010,8 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
+      <c r="A50" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B50" s="5">
         <v>1.0</v>
@@ -2042,8 +2042,8 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>27</v>
+      <c r="A51" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2074,8 +2074,8 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>29</v>
+      <c r="A52" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -2106,8 +2106,8 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>30</v>
+      <c r="A53" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B53" s="5">
         <v>1.0</v>
@@ -2138,8 +2138,8 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>31</v>
+      <c r="A54" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -2170,8 +2170,8 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>33</v>
+      <c r="A55" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -2202,8 +2202,8 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>34</v>
+      <c r="A56" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -2234,8 +2234,8 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>35</v>
+      <c r="A57" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -2298,8 +2298,8 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>37</v>
+      <c r="A59" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
@@ -2330,8 +2330,8 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>39</v>
+      <c r="A60" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -2362,8 +2362,8 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>40</v>
+      <c r="A61" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -2394,8 +2394,8 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>41</v>
+      <c r="A62" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -2426,8 +2426,8 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>42</v>
+      <c r="A63" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B63" s="5">
         <v>2.0</v>
@@ -2458,8 +2458,8 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>43</v>
+      <c r="A64" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -2490,8 +2490,8 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>44</v>
+      <c r="A65" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -2554,8 +2554,8 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>46</v>
+      <c r="A67" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -2586,8 +2586,8 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>49</v>
+      <c r="A68" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B68" s="5">
         <v>3.0</v>
@@ -2618,8 +2618,8 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>50</v>
+      <c r="A69" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B69" s="5">
         <v>0.0</v>
@@ -2650,8 +2650,8 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>51</v>
+      <c r="A70" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B70" s="5">
         <v>0.0</v>
@@ -2682,8 +2682,8 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>52</v>
+      <c r="A71" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B71" s="5">
         <v>0.0</v>
@@ -2714,8 +2714,8 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>54</v>
+      <c r="A72" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B72" s="5">
         <v>3.0</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B75" s="5">
         <v>3.0</v>
@@ -28614,557 +28614,557 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>2016.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2016.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>2016.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9">
         <v>3.0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9">
         <v>0.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9">
         <v>0.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>0.0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>0.0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9">
         <v>0.0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>0.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
         <v>0.0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>0.0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9">
         <v>0.0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>0.0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9">
         <v>0.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>0.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9">
         <v>0.0</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>0.0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9">
         <v>1.0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>0.0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9">
         <v>1.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>0.0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>0.0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
         <v>0.0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>0.0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9">
         <v>0.0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>0.0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9">
         <v>0.0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>0.0</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="9">
         <v>0.0</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>0.0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9">
         <v>0.0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>0.0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9">
         <v>0.0</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>0.0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9">
         <v>0.0</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>0.0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9">
         <v>0.0</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>0.0</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9">
         <v>0.0</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>0.0</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="A26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9">
         <v>0.0</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>0.0</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9">
         <v>0.0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>0.0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9">
         <v>0.0</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>2.0</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="A29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="9">
         <v>0.0</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>0.0</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="A30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="9">
         <v>0.0</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>0.0</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="A31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="9">
         <v>0.0</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>0.0</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="9">
         <v>0.0</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>0.0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="9">
         <v>0.0</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>0.0</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="9">
         <v>0.0</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>0.0</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="A35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="9">
         <v>0.0</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>0.0</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="9">
         <v>0.0</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>0.0</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="9">
         <v>0.0</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>0.0</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="A38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="9">
         <v>2.0</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>0.0</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="9">
         <v>0.0</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>0.0</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="9">
         <v>0.0</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>0.0</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>3.0</v>
       </c>
     </row>
